--- a/test-files/expression-data-test-sheets/expression_sheet_incorrect_numbering.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_incorrect_numbering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9069CAD6-E85A-46E0-B73C-07B0AC133F8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD9B9B-9715-476A-AA95-E96BA2E95C82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>ACE2</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>dgln3</t>
-  </si>
-  <si>
-    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1730,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2092,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2229,9 +2226,6 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/test-files/expression-data-test-sheets/expression_sheet_incorrect_numbering.xlsx
+++ b/test-files/expression-data-test-sheets/expression_sheet_incorrect_numbering.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\OneDrive\GRNsight\test-files\expression-data-test-sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD9B9B-9715-476A-AA95-E96BA2E95C82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{58AD9B9B-9715-476A-AA95-E96BA2E95C82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F68AC483-78E4-4FAD-9F53-7955A32AC1AC}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
     <sheet name="degradation_rates" sheetId="4" r:id="rId2"/>
     <sheet name="wt_log2_expression" sheetId="6" r:id="rId3"/>
-    <sheet name="dgln3_log2_expression" sheetId="12" r:id="rId4"/>
-    <sheet name="network" sheetId="2" r:id="rId5"/>
-    <sheet name="network_weights" sheetId="3" r:id="rId6"/>
-    <sheet name="optimization_parameters" sheetId="9" r:id="rId7"/>
-    <sheet name="threshold_b" sheetId="10" r:id="rId8"/>
+    <sheet name="network" sheetId="2" r:id="rId4"/>
+    <sheet name="network_weights" sheetId="3" r:id="rId5"/>
+    <sheet name="optimization_parameters" sheetId="9" r:id="rId6"/>
+    <sheet name="threshold_b" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>ACE2</t>
   </si>
@@ -1726,11 +1725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="E1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1738,180 +1737,60 @@
     <col min="1" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3</v>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1926,86 +1805,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="E1:P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2085,11 +1884,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2256,7 +2055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
